--- a/portal/applicant_data.xlsx
+++ b/portal/applicant_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Swaroopa </t>
+          <t>Swaroopa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20r11a0544@gcet.edu.in</t>
+          <t>20r11a0529@gcet.edu.in</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1321,6 +1321,252 @@
       <c r="P11" t="inlineStr">
         <is>
           <t>resumes/Resume_updated_1_Pjapn2w.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sam</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3764278610</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20r11a0561@gcet.edu.in</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>backend</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Geethanjali college of engineering and technology.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Btech</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>dfhurhf</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>djfhurei</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>gdty</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>sjdkhfu</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>jhg7u</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>sjkdhfur</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>resumes/Mythili.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ureka</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Konda</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3764278610</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ureka@gmail.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Data engineer</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Geethanjali college of engineering and technology.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>gcet</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>huiyuyubn</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fgks</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>sjifh</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>gdty</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>sjhdfi</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>sfru</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>sjfdhius</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>resumes/Resume_finals.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Amrutha</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Penumantra</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8005497441</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20r11a0541@gcet.edu.in</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>backend</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Geethanjali college of engineering and technology.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Btech</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>jhdfh</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>xfhgiush</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>adkjfhuir</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>sfighs</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>jhg7u</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>kxkfhgiufsh</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>resumes/Mythili_uWrlcjb.pdf</t>
         </is>
       </c>
     </row>
